--- a/src/main/resources/template/excel/export/SupplierCheck.xlsx
+++ b/src/main/resources/template/excel/export/SupplierCheck.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\xuyq\桌面\结算单据导出模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <author>BMM</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -34,11 +34,26 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="J9")</t>
+          <t>jx:area(lastCell="K13")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="reportList" var="obj" lastCell="K12")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>单号</t>
   </si>
@@ -67,142 +82,6 @@
   </si>
   <si>
     <t>合计：</t>
-  </si>
-  <si>
-    <r>
-      <t>单据编号：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{formNo}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>备注：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{remark}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>制单人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{createUserName}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>制单时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{createTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最后修改人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{updateUserName}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最后修改时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{updateTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>审核人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{auditUserName}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>审核时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{auditTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${payableAmount}</t>
@@ -291,30 +170,6 @@
     <t>未付金额</t>
   </si>
   <si>
-    <t>机构：${branchName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商：${supplierName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户银行：${openAccountBank}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账号：${bankAccount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公地址：${officeAddress}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式：${phone}/${mobile}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>${obj.formTypeText</t>
     </r>
@@ -359,10 +214,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>付款方式：${payTypeString}</t>
-  </si>
-  <si>
-    <t>国税登记号：${nationalTaxRegNum}</t>
+    <t>单号：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${formNo}</t>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.rowNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构：</t>
+  </si>
+  <si>
+    <t>供应商：</t>
+  </si>
+  <si>
+    <t>制单人：</t>
+  </si>
+  <si>
+    <t>${createUserName}</t>
+  </si>
+  <si>
+    <t>制单时间：</t>
+  </si>
+  <si>
+    <t>${createTime}</t>
+  </si>
+  <si>
+    <t>最后修改人：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${updateUserName}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改时间：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${updateTime}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人：</t>
+  </si>
+  <si>
+    <t>${auditUserName}</t>
+  </si>
+  <si>
+    <t>审核时间：</t>
+  </si>
+  <si>
+    <t>${auditTime}</t>
+  </si>
+  <si>
+    <t>${branchName}</t>
+  </si>
+  <si>
+    <t>${supplierName}</t>
+  </si>
+  <si>
+    <t>联系方式：</t>
+  </si>
+  <si>
+    <t>${phone}/${mobile}</t>
+  </si>
+  <si>
+    <t>办公地址：</t>
+  </si>
+  <si>
+    <t>${officeAddress}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户银行：</t>
+  </si>
+  <si>
+    <t>银行账号：</t>
+  </si>
+  <si>
+    <t>${openAccountBank}</t>
+  </si>
+  <si>
+    <t>${bankAccount}</t>
+  </si>
+  <si>
+    <t>国税登记号：</t>
+  </si>
+  <si>
+    <t>${nationalTaxRegNum}</t>
+  </si>
+  <si>
+    <t>支付方式：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${payTypeString}</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>${remark}</t>
   </si>
 </sst>
 </file>
@@ -372,7 +344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +389,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -426,7 +414,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -449,66 +437,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,214 +761,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.5" style="4"/>
-    <col min="5" max="6" width="15.5" style="4"/>
+    <col min="1" max="1" width="15.5" style="6"/>
+    <col min="3" max="3" width="15.5" style="2"/>
+    <col min="6" max="7" width="15.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13" t="s">
+      <c r="H7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="10" t="s">
+      <c r="B11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="K13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G3:H3"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/src/main/resources/template/excel/export/SupplierCheck.xlsx
+++ b/src/main/resources/template/excel/export/SupplierCheck.xlsx
@@ -21,10 +21,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>yml</author>
     <author>BMM</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -32,13 +33,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="K13")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,21 +55,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="J7")</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -85,22 +72,6 @@
   </si>
   <si>
     <t>${payableAmount}</t>
-  </si>
-  <si>
-    <r>
-      <t>${obj.formNo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -260,19 +231,19 @@
   </si>
   <si>
     <t>最后修改人：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${updateUserName}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最后修改时间：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${updateTime}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>审核人：</t>
@@ -335,6 +306,22 @@
   </si>
   <si>
     <t>${remark}</t>
+  </si>
+  <si>
+    <r>
+      <t>${obj.targetFormNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -344,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,13 +367,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -477,10 +457,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -764,7 +744,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -775,9 +755,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="A1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -790,148 +771,148 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="I3" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="H7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="H8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="H9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>1</v>
@@ -939,37 +920,37 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="I12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="K12" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -986,16 +967,16 @@
         <v>3</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="K13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/src/main/resources/template/excel/export/SupplierCheck.xlsx
+++ b/src/main/resources/template/excel/export/SupplierCheck.xlsx
@@ -82,6 +82,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -102,6 +103,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -149,6 +151,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -204,6 +207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -316,6 +320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -344,12 +349,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -744,14 +751,20 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="6"/>
-    <col min="3" max="3" width="15.5" style="2"/>
-    <col min="6" max="7" width="15.5" style="2"/>
+    <col min="1" max="1" width="8.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.15">

--- a/src/main/resources/template/excel/export/SupplierCheck.xlsx
+++ b/src/main/resources/template/excel/export/SupplierCheck.xlsx
@@ -756,7 +756,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19.375" bestFit="1" customWidth="1"/>

--- a/src/main/resources/template/excel/export/SupplierCheck.xlsx
+++ b/src/main/resources/template/excel/export/SupplierCheck.xlsx
@@ -271,9 +271,6 @@
     <t>联系方式：</t>
   </si>
   <si>
-    <t>${phone}/${mobile}</t>
-  </si>
-  <si>
     <t>办公地址：</t>
   </si>
   <si>
@@ -326,6 +323,10 @@
       </rPr>
       <t>}</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${phoneMobile}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +752,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,7 +816,7 @@
         <v>44</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -826,10 +827,10 @@
         <v>33</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -840,10 +841,10 @@
         <v>35</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -854,10 +855,10 @@
         <v>37</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -868,10 +869,10 @@
         <v>39</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -882,18 +883,18 @@
         <v>41</v>
       </c>
       <c r="H9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -936,7 +937,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
